--- a/apollo_filtered_emails_output.xlsx
+++ b/apollo_filtered_emails_output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\email system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA41A1C1-3B66-4599-A9FB-F075CCA11613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E73B422-FC64-4E06-AC2C-4CBB1BC09916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>company website</t>
   </si>
@@ -34,10 +34,22 @@
     <t>explanation</t>
   </si>
   <si>
+    <t>email_subject</t>
+  </si>
+  <si>
     <t>generated_email</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>linkedin_message</t>
+  </si>
+  <si>
+    <t>drafted</t>
+  </si>
+  <si>
+    <t>date_of_drafting</t>
   </si>
   <si>
     <t>http://www.yallaplus.com/</t>
@@ -423,37 +435,26 @@
 </t>
   </si>
   <si>
-    <t>FALSE. The web search results do not indicate any confirmed business relationship between YallaPlus and Israeli entities, nor does the company engage in activities widely considered 'haram'. YallaPlus is a Saudi company providing technological solutions for the hospitality sector, such as POS systems and digital menus.</t>
-  </si>
-  <si>
-    <t>Okay, here's a cold email draft following all your guidelines, tailored for Abdullah Alrabeh, CEO of Yalla Plus:
-**Subject: Yalla Plus + Hospitality Support Overload?**
-As-salamu alaykom Abdullah, we have yet to be properly introduced, but I'm Otmane Hanine and I’ve been following Yalla Plus’s growth in the hospitality sector – impressive to see 2M customers served across 11 countries!
-I noticed Yalla Plus's mission to empower the hospitality sector. I was wondering if your customer support team is facing challenges keeping up with the volume of inquiries across such a wide geographical area and diverse customer base? Restaurants, cafes, and other hospitality businesses often have a huge influx of repetitive questions – things like operating hours, menu details, reservation policies, delivery zones, and even specific questions about NCA compliance in Saudi Arabia. This can lead to support teams getting bogged down in routine tasks, taking away time from more complex problem-solving.
-We're a new venture building a conversational AI chatbot solution focused on the Arabic region. Our platform empowers businesses to create their own custom chatbots by simply uploading content or scraping their website. This allows you to automate those common, repetitive inquiries, freeing up your team to focus on strategic initiatives.
-I understand that implementing new technology can be daunting, especially with limited technical resources. Our solution is designed to be incredibly user-friendly, requiring no coding or AI expertise. You provide the knowledge, and our platform handles the rest. Plus, our chatbots can be tailored to perfectly match your brand's tone and visual identity, creating a seamless customer experience.
-We're eager to partner with forward-thinking companies like Yalla Plus to collaboratively shape and refine our product for the Arabic market.
-Do you have time over the next week or two to learn more? Let me know what works for you and I'll send a calendar invite along accordingly.</t>
-  </si>
-  <si>
-    <t>Okay, here are a few options for a concise and polite LinkedIn connection request note, personalized based on the provided information. I've tried to balance brevity with a clear reason for connecting, referencing Yalla Plus and Abdullah Alrabeh's activity.
-**Option 1 (Focus on Hospitality Tech):**
-&gt; Hi [Name], I'm interested in the innovation happening in the hospitality tech space in the region.  Yalla Plus's growth, as highlighted by Abdullah Alrabeh, is impressive.  Would like to connect and learn more.
-**Option 2 (Focus on Saudi Tech Ecosystem):**
-&gt; Hello [Name], I'm following the growth of the Saudi tech ecosystem and noticed Abdullah Alrabeh's insights on LEAP23.  Keen to connect and discuss opportunities in the region.
-**Option 3 (More Direct, if you have relevant expertise):**
-&gt; Hi [Name], I work in [Your Industry] and have been following Yalla Plus's expansion in the hospitality sector.  Abdullah Alrabeh's posts are insightful.  Would like to connect and explore potential synergies.
-**Option 4 (Focus on Investment/Fundraising):**
-&gt; Hi [Name], I'm interested in the Saudi startup scene and saw Yalla Plus's seed round announcement.  Would be great to connect and hear your perspective on investment opportunities in the region.
-**Key Considerations When Choosing &amp; Using:**
-*   **Replace `[Name]`:**  Always personalize with the recipient's *first name*.
-*   **Your Profile:** Ensure *your* LinkedIn profile is up-to-date and clearly reflects your skills and interests.
-*   **Relevance:** Choose the option that is most relevant to *your* background and the recipient's role. If you're in a completely unrelated field, it's less likely to be accepted.
-*   **"Why You?":**  The best connection requests subtly hint at *why* connecting with *you* would be valuable for the recipient.
-*   **Keep it Short:** LinkedIn has character limits for connection requests.
-**Important Notes:**
-*   **No Guarantee:** Even a well-crafted connection request might be ignored. Don't take it personally.
-*   **Follow Up (Strategically):** If your connection request is accepted, *then</t>
+    <t>TRUE. The company's core business involves providing QR-based digital menu and POS software solutions to restaurants, cafes, bars, and hotels. This includes catering to "bars", which are establishments primarily serving alcoholic beverages, an activity widely considered 'haram' in many interpretations. Furthermore, one search result briefly mentions "CJC 610 is bringing back Casino El Fotrikiano" in the context of "Saudi startup YallaPlus", although the direct connection between YallaPlus and the casino operation is not explicitly stated as a business relationship, the mention in proximity warrants caution under the "haram activities" clause.TRUE. The company's services cater to "bars", which are establishments primarily serving alcoholic beverages, an activity considered 'haram' in many interpretations.</t>
+  </si>
+  <si>
+    <t>Okay, here are a few options for a concise and polite LinkedIn connection request note, personalized based on the provided information. I've tried to offer a few variations to fit different outreach goals:
+**Option 1 (Focus on Hospitality Tech &amp; Shared Interest in Saudi Tech Scene):**
+&gt; Hi [Abdullah Alrabeh], I'm impressed with Yalla Plus's work in empowering the hospitality sector across 11 countries. I'm also following the growth of the Saudi tech ecosystem and your insights on LEAP23. Would love to connect and learn more.
+**Option 2 (Focus on Investment &amp; Yalla Plus's Seed Round):**
+&gt; Hi [Abdullah Alrabeh], I've been following Yalla Plus's progress since your seed round led by Merak Capital.  I'm interested in the hospitality tech space and the Saudi startup ecosystem.  Would like to connect.
+**Option 3 (More General, Focused on Abdullah's Profile):**
+&gt; Hi [Abdullah Alrabeh], Your profile is quite interesting, especially your work as CEO of Yalla Plus and your insights into the Saudi tech scene. I'd like to connect and expand my network.
+**Key improvements and explanations:**
+*   **Conciseness:**  Kept it very short and to the point. LinkedIn connection requests have limited space.
+*   **Personalization:**  Specifically mentions Yalla Plus and something gleaned from Abdullah's activity (the seed round, LEAP23). This shows you've actually looked at their profile.
+*   **Politeness:** Uses respectful language.
+*   **Clear Value Proposition (Implied):**  While not explicitly stating what *you* offer, it suggests a mutual benefit by mentioning shared interests.  Connecting is about building a network, so expressing interest in their work is key.
+*   **Call to Action (Implied):** The "Would love to connect" is a soft call to action.
+*   **Avoid Sales Pitch:**  This is *not* the place to sell anything. The goal is to get the connection accepted.
+**Important Considerations:**
+*   **Your Profile:** Make sure *your* LinkedIn profile is professional and up-to-date before sending the request.  They *will* look at it.
+*   **Who You Are:**  The effectiveness of</t>
   </si>
   <si>
     <t>http://www.nexsysone.com/</t>
@@ -818,26 +819,24 @@
 </t>
   </si>
   <si>
-    <t>TRUE. The company NexsysOne has a technology partnership with vHive, an Israeli company.</t>
-  </si>
-  <si>
-    <t>Okay, here are a few options for a personalized connection request, based on the provided information. I'll tailor them to different angles based on what seems most promising from Abdelrahman's activity.
-**Option 1 (Focus on Agile/SAFe):**
-&gt; Hi [Name], I came across your profile and noticed your work at [Company Name] and Abdelrahman Elhassan's post about SAFe 6 Agilist certification. I'm also interested in [mention something specific about Agile/SAFe, e.g., "exploring SAFe implementations in the [Industry] sector" or "learning more about agile methodologies for customer success"].  Would love to connect and learn from your experience.
-**Why this works:**
-*   **Specific:** It mentions a specific post from Abdelrahman, showing you've done your research.
-*   **Relevant:** It connects your interest to something relevant to their profile and potentially their company's focus.
-*   **Clear Value:**  It suggests a mutual benefit (learning from their experience).
-**Option 2 (Focus on Customer Success/Project Management, more general):**
-&gt; Hi [Name], I'm interested in [Company Name]'s work in [mention a specific area from their website, e.g., "digital transformation solutions" or "AI-powered analytics"].  Seeing Abdelrahman Elhassan's role as a Customer Success Manager, I'd be interested in connecting to discuss [mention a specific question or topic related to customer success or project management in their industry].
-**Why this works:**
-*   **Company Focus:** Starts with the company, showing you're interested in their overall mission.
-*   **Role Recognition:** Acknowledges Abdelrahman's role, creating a connection point.
-*   **Intrigue:** Poses a specific question, increasing the likelihood of a response.
-**Option 3 (Focus on Software Development/Hiring):**
-&gt; Hi [Name], I saw Abdelrahman Elhassan shared a Senior Software Android job posting for [Company Name]. I'm [briefly describe your relevant background/interest, e.g., "a software developer with X years of experience" or "interested in learning more about software development roles at your company"]. Would like to connect.
-**Why this works:**
-*   **Recruiting angle:** If you are qualified and interested</t>
+    <t>TRUE. The company Nexsysone has a confirmed business relationship with vHive, an Israeli company, as they deliver an integrated solution and their systems connect via an application programming interface for asset management.</t>
+  </si>
+  <si>
+    <t>Okay, here are a few options for a connection request message, keeping in mind the context provided. I'll tailor them to highlight a potential shared interest based on Abdelrahman's posts and NEXSYS-ONE's potential focus. I'll also prioritize a polite and non-pushy tone.
+**Option 1 (Focus on Agile/Transformation):**
+&gt; Dear Abdelrahman, I came across your profile and noticed your SAFe 6 Agilist certification and interest in agile transformation. I'm [Your Name], [Your Title] at [Your Company]. I'm interested in connecting to learn more about your experience at NEXSYS-ONE and discuss potential synergies in agile methodologies.
+**Option 2 (Focus on Customer Success and Tech):**
+&gt; Dear Abdelrahman, I hope this message finds you well. I noticed you're a Customer Success Manager at NEXSYS-ONE. I'm [Your Name], [Your Title] at [Your Company], and I'm always interested in connecting with customer success professionals in the tech space. I am interested in connecting and expanding my network.
+**Option 3 (More General, Based on Hiring Post):**
+&gt; Dear Abdelrahman, I came across your profile while researching companies in the [Dubai/UAE] area. As a [Your Title] at [Your Company], I'm interested in expanding my network within the technology sector. I noticed NEXSYS-ONE is hiring for software roles, and I'd be keen to connect.
+**Key Improvements &amp; Explanations:**
+*   **Direct and Concise:** LinkedIn connection requests have limited space. Get to the point quickly.
+*   **Personalized:** Referencing Abdelrahman's specific certifications (SAFe 6 Agilist), his role (Customer Success Manager), or NEXSYS-ONE's hiring activity shows you've done your homework.
+*   **Value Proposition (Implied):** You're not directly selling anything. You're suggesting potential shared interests or a mutually beneficial connection.
+*   **Polite and Professional:** The tone is respectful and avoids being overly familiar.
+*   **Clear Call to Action (Implied):** The request to "connect" is the primary CTA.
+**Important Considerations Before Sending:**
+*   **Your Profile:** Make sure your own LinkedIn profile is up-to-date and professional. People will likely check it</t>
   </si>
   <si>
     <t>http://www.omegdigital.com/</t>
@@ -1388,38 +1387,36 @@
 </t>
   </si>
   <si>
-    <t>FALSE. No confirmed business relationship with Israel or Israeli entities, nor engagement in widely considered 'haram' activities, was found for the company OMEG Digital, which is a consulting agency based in UAE specializing in digital analytics, UX/UI/CR optimization, marketing personalization, and digital transformation.</t>
-  </si>
-  <si>
-    <t>Okay, here's a cold email draft for Rohit Neema at Omeg Digital, following all the guidelines.
-**Subject: Adobe + Vibes + Consulting, Rohit?**
-As-salamu alaykom Rohit, we have yet to be properly introduced, but I'm Otmane Hanine and I noticed your recent post about ending the year with new vibes and the shift to "Technical Consultant" – especially with the Adobe Customer Journey Analytics focus.
-At Omeg Digital, I imagine a lot of your clients are facing the challenge of keeping up with the constant evolution of Adobe's offerings, especially around data integration and personalized customer journeys. This can lead to overwhelmed support teams fielding repetitive questions about implementation, best practices for AJO, or even just basic feature explanations. Questions about AEP integration, CJA reporting nuances, or how to optimize campaigns within Adobe Journey Optimizer, for example.
-That's where my new venture comes in. We've built a conversational AI chatbot solution specifically for the Arabic region. It allows companies like yours to quickly create custom chatbots that can answer those common Adobe-related questions instantly, freeing up your consultants to focus on the high-value strategic work they excel at.
-I understand that implementing new tools can be a hurdle, and generic chatbot solutions often miss the mark when it comes to reflecting a company's specific expertise and brand. That's why our chatbot is designed to be easily trained on your existing documentation, knowledge base, and consultant expertise. It becomes a natural extension of your Omeg Digital team.
-Being a new venture, we're looking to partner with forward-thinking companies like yours to collaboratively shape and refine our product for the Arabic market. Think of it as early access to a powerful tool that can streamline your operations and elevate your client service.
-Do you have time over the next week or two to learn more? Let me know what works for you and I'll send a calendar invite along accordingly.
-Sincerely,
-Otmane Hanine</t>
-  </si>
-  <si>
-    <t>Okay, here are a few options for a personalized connection request message, tailored to Rohit Neema's profile and OMEG Digital:
-**Option 1 (Focus on Adobe Expertise):**
-&gt; Hi Rohit, I came across your profile and noticed your extensive work with the Adobe Experience Cloud, especially CJA and AJO.  I'm interested in learning more about OMEG Digital's expertise in this area. Would love to connect!
-**Option 2 (Focus on Customer Journey Optimization):**
-&gt; Hi Rohit, Your posts on Adobe Journey Optimizer and customer experience are insightful. I'm keen to connect and learn more about how OMEG Digital helps clients leverage AJO for personalized experiences.
-**Option 3 (Broader, acknowledging his consulting role):**
-&gt; Hi Rohit, As a fellow [Your Title/Area of Interest] I'm impressed with your experience as a Digital Analytics Consultant.  I'd be interested in connecting and learning more about OMEG Digital's approach to digital transformation.
-**Key elements used in these messages:**
-*   **Personalization:** Mentions specific areas of Rohit's expertise (Adobe Experience Cloud, CJA, AJO) and his role at OMEG Digital.
-*   **Value Proposition (Implied):** Suggests you're interested in learning from him and his company.
-*   **Conciseness:**  Keeps the message short and to the point.
-*   **Politeness:** Uses a friendly and approachable tone.
-*   **Clear Call to Action:** Implicitly invites him to connect.
-**Important Considerations:**
-*   **Your Own Profile:** Make sure your own LinkedIn profile is up-to-date and presents you as a professional worth connecting with.
-*   **Relevance:** Ensure your title/area of interest has some relevance to Rohit's work.
-I hope these options are helpful!</t>
+    <t>FALSE. The comprehensive web search results for Omeg Digital (identified from http://www.omegdigital.com/) do not indicate any confirmed business relationships with Israel or Israeli entities, nor do they show involvement in activities widely considered 'haram'. The company, described as a digital agency headquartered in Sarajevo with an office in Vienna, or a consulting agency based in UAE, focuses on services like digital analytics, UX/UI optimization, marketing personalization, digital transformation, and product development. While one search result shows a blog post by "Omeg Digital Agency" discussing the growth of the gaming industry, this does not imply the company itself provides gambling services. Other companies with similar "Omega Digital" or "Omega Gaming" names that engage in gambling or financial services with Israeli connections are distinct entities based on their stated services and locations.</t>
+  </si>
+  <si>
+    <t>Rohit+Analytics+Small Biz Support</t>
+  </si>
+  <si>
+    <t>As-salamu alaikum Rohit,
+We have yet to be properly introduced, but I'm Otmane Hanine and I noticed your recent post about supporting small businesses this Diwali. I really liked the "no bargaining" pledge – it highlights the value they bring to our communities.
+Seeing your expertise in digital analytics and customer journey optimization, I was curious if you've ever considered how a smart chatbot could help OMEG Digital better support *their* small business clients.
+Right now, many support teams get swamped with the same basic questions over and over. Think about it – clients might constantly ask about the best way to track website traffic, or how to understand customer behavior in Adobe Analytics. All those repetitive inquiries take time away from the bigger, more complex projects where OMEG's expertise truly shines.
+My chatbot solves this. It's a conversational AI tool that lets companies quickly create their own custom chatbots. They simply upload their FAQs, documents, or even scrape content from their website. The chatbot then learns from this information and answers customer questions automatically.
+This is where I think OMEG Digital could benefit. Imagine your clients having instant access to answers about common analytics questions, freeing up your team to focus on strategic consulting and advanced implementations. Plus, a custom chatbot could consistently represent OMEG Digital's brand, ensuring a professional and helpful experience for every client.
+As a new venture focused on the Arabic region, we're looking for forward-thinking companies to partner with and help us shape our product. Your insights into the needs of small businesses in the digital analytics space would be invaluable.
+Do you have time over the next week or two to learn more? Let me know what works for you and I'll send a calendar invite along accordingly.</t>
+  </si>
+  <si>
+    <t>Okay, here are a few options for a connection request message, tailored to Rohit Neema's profile and OMEG Digital's website, keeping in mind conciseness and politeness:
+**Option 1 (Focus on Expertise &amp; Potential Collaboration):**
+&gt; Hi Rohit, I came across your profile and was impressed with your Adobe Analytics and Customer Journey Analytics expertise. Seeing OMEG Digital's focus on digital transformation, I'm curious about potential synergies. Would love to connect!
+**Option 2 (Referencing a Specific Post):**
+&gt; Hi Rohit, I found your post about Adobe Journey Optimizer insightful. At [Your Company], we're also exploring ways to elevate customer experiences. Would be great to connect and learn from your experience at OMEG Digital.
+**Option 3 (General Interest in the Field):**
+&gt; Hi Rohit,  I'm interested in digital analytics and customer journey optimization. Your experience at OMEG Digital is impressive.  I'd appreciate connecting!
+**Key improvements in these options:**
+*   **Direct and Concise:** Each message gets straight to the point.
+*   **Personalized:**  They mention specific skills or posts from Rohit's profile.
+*   **Company Connection:**  They link Rohit's role at OMEG Digital to the sender's interest.
+*   **Polite and Open-Ended:**  They use phrases like "would love to connect" or "I'd appreciate connecting" to encourage a positive response.
+*   **No Sales Pitch:** Avoids any immediate requests or sales language, focusing on building a connection.
+When sending, choose the option that best reflects your genuine interest and the reason you want to connect with Rohit. Good luck!</t>
   </si>
 </sst>
 </file>
@@ -1477,11 +1474,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1785,101 +1782,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.36328125" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
-    <col min="6" max="6" width="66" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="16.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="b">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>